--- a/s24PBTiimi2BurndownChartVelocity.xlsx
+++ b/s24PBTiimi2BurndownChartVelocity.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anna\HH\ohjelmistoprojekti1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anna\HH\ohjelmistoprojekti1\s24Tiimi2Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55827AF7-0B86-4404-B28B-B27E075590EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2577E2-A327-44C8-9EE4-5450BF2B2258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C479CED9-8A31-459B-9A34-852820542566}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C479CED9-8A31-459B-9A34-852820542566}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="256">
   <si>
     <t>Req Nbr</t>
   </si>
@@ -1096,9 +1096,6 @@
   </si>
   <si>
     <t>Sprint  4</t>
-  </si>
-  <si>
-    <t>tämä taisi puuttua tiimin product backlogista</t>
   </si>
   <si>
     <t>Sprint number</t>
@@ -1269,12 +1266,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1285,6 +1276,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3005,6 +3000,9 @@
                 <c:pt idx="7">
                   <c:v>High</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>Done</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3028,6 +3026,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3069,6 +3070,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3094,6 +3098,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5631,9 +5638,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5965,10 +5969,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6077,7 +6081,7 @@
                         <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>18</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>8</c:v>
@@ -7531,7 +7535,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pellikka Minna" refreshedDate="45628.381716898148" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{82410811-E3FF-4994-8012-FB8E55988606}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="OMISTAJA" refreshedDate="45631.469238425925" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{82410811-E3FF-4994-8012-FB8E55988606}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B1048576" sheet="pivot-velocity"/>
   </cacheSource>
@@ -7651,11 +7655,11 @@
   </r>
   <r>
     <n v="23"/>
-    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="24"/>
-    <x v="4"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="25"/>
@@ -7813,7 +7817,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7AEDC5D-C855-4893-9BA2-A8733D542464}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sprint number">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7AEDC5D-C855-4893-9BA2-A8733D542464}" name="PivotTable8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sprint number">
   <location ref="E5:F13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -8177,8 +8181,8 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8951,8 +8955,12 @@
       <c r="H24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
@@ -8979,8 +8987,12 @@
       <c r="H25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
@@ -10091,34 +10103,32 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+      <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15" t="s">
-        <v>254</v>
-      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J59" xr:uid="{E4A41D4B-E510-47CE-BAC3-3E487078559C}"/>
@@ -10139,16 +10149,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165BC35D-EF9D-4EB4-8C64-C194450A0A37}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="7.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
@@ -10201,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" t="s">
         <v>244</v>
@@ -10223,7 +10233,7 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="22">
         <v>6</v>
       </c>
       <c r="G6"/>
@@ -10244,7 +10254,7 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="22">
         <v>8</v>
       </c>
       <c r="G7"/>
@@ -10267,13 +10277,13 @@
       <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>18</v>
+      <c r="F8" s="22">
+        <v>20</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="4">
         <f>SUM(F6:F9)/4</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -10290,7 +10300,7 @@
       <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="22">
         <v>8</v>
       </c>
       <c r="G9"/>
@@ -10305,7 +10315,7 @@
       <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="22">
         <v>14</v>
       </c>
       <c r="G10"/>
@@ -10320,8 +10330,8 @@
       <c r="E11" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F11">
-        <v>6</v>
+      <c r="F11" s="22">
+        <v>4</v>
       </c>
       <c r="G11"/>
     </row>
@@ -10335,6 +10345,7 @@
       <c r="E12" s="4" t="s">
         <v>242</v>
       </c>
+      <c r="F12" s="22"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10347,7 +10358,7 @@
       <c r="E13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="22">
         <v>60</v>
       </c>
       <c r="G13"/>
@@ -10359,6 +10370,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
+      <c r="E14" s="4"/>
       <c r="G14"/>
       <c r="N14" s="5"/>
     </row>
@@ -10369,6 +10381,7 @@
       <c r="B15" s="10">
         <v>1</v>
       </c>
+      <c r="E15" s="4"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10446,16 +10459,16 @@
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>246</v>
+      <c r="B24" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>246</v>
+      <c r="B25" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10759,9 +10772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92810DE3-3E7C-4F67-940A-DFB09AD8C4F5}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:C10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10771,10 +10784,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>244</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -10782,73 +10795,73 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>6</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>8</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <f>C4+C5</f>
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
-        <v>18</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="19">
+        <v>20</v>
+      </c>
+      <c r="D6" s="19">
         <f>D5+C6</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>8</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <f t="shared" ref="D7" si="0">D6+C7</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>4</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>14</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="22">
-        <v>6</v>
-      </c>
-      <c r="D9" s="21"/>
+      <c r="C9" s="20">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="17">
         <v>60</v>
       </c>
     </row>
@@ -10860,6 +10873,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010061FA388B24C5844A87282C76D8503176" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="3cbd16230a07cb6e49d443617b2c6b1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24f9f1a4-8b2e-4dc6-a8c3-ac769f41722c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87d31b248dbbb9badc47fdaf789e4726" ns2:_="">
     <xsd:import namespace="24f9f1a4-8b2e-4dc6-a8c3-ac769f41722c"/>
@@ -11003,22 +11031,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0269E476-3EF6-4749-ADF3-0D5C450A2E68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE8F6A6-0841-43B9-BEE5-4DB5A1480306}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A144A1A5-A50E-4928-92F2-4DC379427315}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11034,21 +11064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE8F6A6-0841-43B9-BEE5-4DB5A1480306}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0269E476-3EF6-4749-ADF3-0D5C450A2E68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/s24PBTiimi2BurndownChartVelocity.xlsx
+++ b/s24PBTiimi2BurndownChartVelocity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anna\HH\ohjelmistoprojekti1\s24Tiimi2Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2577E2-A327-44C8-9EE4-5450BF2B2258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206103C0-19ED-4880-A95C-704F99F3C7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C479CED9-8A31-459B-9A34-852820542566}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C479CED9-8A31-459B-9A34-852820542566}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">burndown!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pivot-velocity'!$A$1:$M$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog'!$A$1:$J$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog'!$A$1:$J$61</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="255">
   <si>
     <t>Req Nbr</t>
   </si>
@@ -1087,9 +1087,6 @@
   </si>
   <si>
     <t>Sprint #</t>
-  </si>
-  <si>
-    <t>on going</t>
   </si>
   <si>
     <t>Sprint 4</t>
@@ -1226,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1239,9 +1236,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2652,7 +2646,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3360,7 +3354,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3432,7 +3426,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4212,7 +4206,7 @@
                   <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4350,7 +4344,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4421,7 +4415,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4492,7 +4486,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4563,7 +4557,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4634,7 +4628,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4776,7 +4770,7 @@
                   <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4848,7 +4842,7 @@
                   <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5415,7 +5409,7 @@
                   <c:v>High</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5484,7 +5478,7 @@
                   <c:v>High</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5547,7 +5541,7 @@
                   <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>on going</c:v>
+                  <c:v>Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6155,7 +6149,6 @@
         <c:axId val="667582719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7535,7 +7528,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="OMISTAJA" refreshedDate="45631.469238425925" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{82410811-E3FF-4994-8012-FB8E55988606}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="OMISTAJA" refreshedDate="45634.99670729167" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{82410811-E3FF-4994-8012-FB8E55988606}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B1048576" sheet="pivot-velocity"/>
   </cacheSource>
@@ -8181,8 +8174,8 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8199,1939 +8192,1939 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="91.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="63.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="78.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="98" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" ht="109.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    <row r="46" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="D46" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="95.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="166.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I49" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J49" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="98" x14ac:dyDescent="0.35">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="98" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="10" t="s">
+    <row r="52" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J52" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="11" t="s">
+    <row r="56" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="D56" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="137.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="73" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="186" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" ht="109.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A43" s="14">
-        <v>42</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14">
-        <v>43</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A45" s="14">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A46" s="14">
-        <v>45</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A47" s="14">
-        <v>46</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="95.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14">
-        <v>47</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="166.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="98" x14ac:dyDescent="0.35">
-      <c r="A51" s="14">
-        <v>50</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14">
-        <v>51</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A54" s="14">
-        <v>53</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14">
-        <v>54</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14">
-        <v>55</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A57" s="14">
-        <v>56</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A58" s="14">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A59" s="14">
-        <v>58</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A60" s="14">
-        <v>59</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A61" s="14">
-        <v>60</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J59" xr:uid="{E4A41D4B-E510-47CE-BAC3-3E487078559C}"/>
+  <autoFilter ref="A1:J61" xr:uid="{E4A41D4B-E510-47CE-BAC3-3E487078559C}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B29 B1:B7 C2:C3 C6" xr:uid="{6EC55513-65EB-4D71-9A7F-082D9D9E1277}">
@@ -10149,16 +10142,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165BC35D-EF9D-4EB4-8C64-C194450A0A37}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A3" zoomScale="74" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="7.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
@@ -10166,18 +10159,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -10185,10 +10178,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -10196,22 +10189,22 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
         <v>244</v>
@@ -10224,16 +10217,16 @@
       <c r="L5"/>
     </row>
     <row r="6" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>6</v>
       </c>
       <c r="G6"/>
@@ -10245,16 +10238,16 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>8</v>
       </c>
       <c r="G7"/>
@@ -10268,16 +10261,16 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>20</v>
       </c>
       <c r="G8"/>
@@ -10291,83 +10284,83 @@
       <c r="M8"/>
     </row>
     <row r="9" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>8</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>14</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>4</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>60</v>
       </c>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="4"/>
@@ -10375,387 +10368,387 @@
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
       <c r="E15" s="4"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>2</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>2</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>4</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>2</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>2</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>246</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>45</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14">
+      <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <v>49</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14">
+      <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14">
+      <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>53</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>54</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <v>55</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <v>56</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14">
+      <c r="A58" s="13">
         <v>57</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14">
+      <c r="A59" s="13">
         <v>58</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="14">
+      <c r="A60" s="13">
         <v>59</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+      <c r="A61" s="13">
         <v>60</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="9" t="s">
         <v>246</v>
       </c>
     </row>
@@ -10772,9 +10765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92810DE3-3E7C-4F67-940A-DFB09AD8C4F5}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10784,10 +10777,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>244</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -10795,73 +10788,76 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>6</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>8</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f>C4+C5</f>
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>20</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <f>D5+C6</f>
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>8</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f t="shared" ref="D7" si="0">D6+C7</f>
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>14</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="19">
+        <f>D7+C8</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>4</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="16">
         <v>60</v>
       </c>
     </row>
